--- a/Excel/Offset/2019.01.28-Calcule Offset.xlsx
+++ b/Excel/Offset/2019.01.28-Calcule Offset.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE02DE7-C1AA-4DC5-9B0E-BEE8ADE1188C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71F2D9-3AC1-48F8-A2C2-9CA78F51DC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -453,7 +456,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
